--- a/其他/TeamWatch.xlsx
+++ b/其他/TeamWatch.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\FFXIV_Auxiliary_Tools\csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\FFXIV_Auxiliary_Tools\其他\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C23A249D-AEEC-481F-8987-98B035906470}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610A486D-2789-418B-9872-D337036E0B44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="36360" windowHeight="16440" xr2:uid="{999642F5-C1A6-4382-A784-C8C015B45A8D}"/>
+    <workbookView xWindow="17805" yWindow="1050" windowWidth="18045" windowHeight="11835" xr2:uid="{999642F5-C1A6-4382-A784-C8C015B45A8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -132,9 +132,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>异想的幻光</t>
-  </si>
-  <si>
     <t>治疗之华尔兹</t>
   </si>
   <si>
@@ -157,156 +154,165 @@
     <t>命运之轮</t>
   </si>
   <si>
+    <t>庇护所</t>
+  </si>
+  <si>
+    <t>极光</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弃明投暗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰然自若</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣光幕帘</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天星冲日</t>
+  </si>
+  <si>
+    <t>全大赦</t>
+  </si>
+  <si>
+    <t>星云</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗影墙</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>复仇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>预警</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天宫图</t>
+  </si>
+  <si>
+    <t>法令</t>
+  </si>
+  <si>
+    <t>铁壁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>减伤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地星</t>
+  </si>
+  <si>
+    <t>神名</t>
+  </si>
+  <si>
+    <t>技巧舞步</t>
+  </si>
+  <si>
+    <t>龙神召唤</t>
+  </si>
+  <si>
+    <t>回返雪月花</t>
+  </si>
+  <si>
+    <t>石之心</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>至黑之夜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>原初的勇猛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>安魂祈祷</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天星交错</t>
+  </si>
+  <si>
+    <t>神祝祷</t>
+  </si>
+  <si>
+    <t>百花争艳</t>
+  </si>
+  <si>
+    <t>猛者强击</t>
+  </si>
+  <si>
+    <t>野火</t>
+  </si>
+  <si>
+    <t>倍增</t>
+  </si>
+  <si>
+    <t>龙神附体</t>
+  </si>
+  <si>
+    <t>黑魔纹</t>
+  </si>
+  <si>
+    <t>明镜止水</t>
+  </si>
+  <si>
+    <t>影牙</t>
+  </si>
+  <si>
+    <t>猛枪</t>
+  </si>
+  <si>
+    <t>红莲极意</t>
+  </si>
+  <si>
+    <t>无情</t>
+  </si>
+  <si>
+    <t>血乱</t>
+  </si>
+  <si>
+    <t>原初的解放</t>
+  </si>
+  <si>
+    <t>战逃反应</t>
+  </si>
+  <si>
+    <t>爆发技能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不屈不挠之策</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>野战治疗阵</t>
-  </si>
-  <si>
-    <t>庇护所</t>
-  </si>
-  <si>
-    <t>极光</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>弃明投暗</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰然自若</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣光幕帘</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>天星冲日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>以太超流</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙光的低语</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>秘策</t>
-  </si>
-  <si>
-    <t>全大赦</t>
-  </si>
-  <si>
-    <t>星云</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗影墙</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>复仇</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>预警</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>天宫图</t>
-  </si>
-  <si>
-    <t>异想的祥光</t>
-  </si>
-  <si>
-    <t>法令</t>
-  </si>
-  <si>
-    <t>铁壁</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>减伤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>地星</t>
-  </si>
-  <si>
-    <t>不屈不挠之策</t>
-  </si>
-  <si>
-    <t>神名</t>
-  </si>
-  <si>
-    <t>技巧舞步</t>
-  </si>
-  <si>
-    <t>龙神召唤</t>
-  </si>
-  <si>
-    <t>回返雪月花</t>
-  </si>
-  <si>
-    <t>石之心</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>至黑之夜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>原初的勇猛</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>安魂祈祷</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>天星交错</t>
-  </si>
-  <si>
-    <t>仙光的低语</t>
-  </si>
-  <si>
-    <t>神祝祷</t>
-  </si>
-  <si>
-    <t>百花争艳</t>
-  </si>
-  <si>
-    <t>猛者强击</t>
-  </si>
-  <si>
-    <t>野火</t>
-  </si>
-  <si>
-    <t>倍增</t>
-  </si>
-  <si>
-    <t>龙神附体</t>
-  </si>
-  <si>
-    <t>黑魔纹</t>
-  </si>
-  <si>
-    <t>明镜止水</t>
-  </si>
-  <si>
-    <t>影牙</t>
-  </si>
-  <si>
-    <t>猛枪</t>
-  </si>
-  <si>
-    <t>红莲极意</t>
-  </si>
-  <si>
-    <t>无情</t>
-  </si>
-  <si>
-    <t>血乱</t>
-  </si>
-  <si>
-    <t>原初的解放</t>
-  </si>
-  <si>
-    <t>战逃反应</t>
-  </si>
-  <si>
-    <t>爆发技能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>深谋远虑之策</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -844,7 +850,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB46922C-F397-41BE-89BB-F364FF151BC8}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -856,115 +864,115 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>70</v>
-      </c>
       <c r="R1" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
       <c r="B2" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -977,28 +985,28 @@
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -1011,28 +1019,28 @@
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -1045,31 +1053,31 @@
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -1080,11 +1088,11 @@
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P6" s="6"/>
       <c r="Q6" s="6" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="R6" s="6"/>
     </row>
@@ -1353,5 +1361,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>